--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111119600</v>
+        <v>111117771</v>
       </c>
       <c r="B2" t="n">
-        <v>96332</v>
+        <v>99413</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,39 +692,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>620</v>
+        <v>221235</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Haxängänget (Haxängänget), Jmt</t>
+          <t>Haxängberget (Haxängberget), Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>502198.48677184</v>
+        <v>502162.4857801876</v>
       </c>
       <c r="R2" t="n">
-        <v>6984920.618724592</v>
+        <v>6984991.493007575</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -796,7 +796,7 @@
         <v>111115978</v>
       </c>
       <c r="B3" t="n">
-        <v>78614</v>
+        <v>78623</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111116011</v>
+        <v>111115919</v>
       </c>
       <c r="B4" t="n">
-        <v>97552</v>
+        <v>106732</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2082</v>
+        <v>220204</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Hypochaeris maculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>502202.5351659534</v>
+        <v>502221.6631376348</v>
       </c>
       <c r="R4" t="n">
-        <v>6984991.065364953</v>
+        <v>6984971.081527092</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111117771</v>
+        <v>111115983</v>
       </c>
       <c r="B5" t="n">
-        <v>99398</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1039,39 +1039,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221235</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Haxängberget (Haxängberget), Jmt</t>
+          <t>Haxängänget (Haxängänget), Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>502162.4857801876</v>
+        <v>502198.9066096816</v>
       </c>
       <c r="R5" t="n">
-        <v>6984991.493007575</v>
+        <v>6984972.883986787</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1116,12 +1118,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Lodyta</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1140,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111115919</v>
+        <v>111116011</v>
       </c>
       <c r="B6" t="n">
-        <v>106707</v>
+        <v>97565</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,25 +1160,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220204</v>
+        <v>2082</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hypochaeris maculata</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1181,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>502221.6631376348</v>
+        <v>502202.5351659534</v>
       </c>
       <c r="R6" t="n">
-        <v>6984971.081527092</v>
+        <v>6984991.065364953</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1253,10 +1261,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111115983</v>
+        <v>111119600</v>
       </c>
       <c r="B7" t="n">
-        <v>78569</v>
+        <v>96346</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1269,37 +1277,35 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Haxängänget (Haxängänget), Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>502198.9066096816</v>
+        <v>502198.48677184</v>
       </c>
       <c r="R7" t="n">
-        <v>6984972.883986787</v>
+        <v>6984920.618724592</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1344,18 +1350,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Lodyta</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
